--- a/OnBoard/output/trust/bio/Bio_Trust_4.xlsx
+++ b/OnBoard/output/trust/bio/Bio_Trust_4.xlsx
@@ -11904,7 +11904,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F228">
@@ -11917,16 +11917,11 @@
         <v>172</v>
       </c>
       <c r="I228">
-        <v>36</v>
+        <v>-1</v>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L228">
@@ -11956,7 +11951,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F229">
@@ -11969,16 +11964,11 @@
         <v>221</v>
       </c>
       <c r="I229">
-        <v>88</v>
+        <v>-1</v>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L229">
@@ -12008,7 +11998,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F230">
@@ -12021,16 +12011,11 @@
         <v>174</v>
       </c>
       <c r="I230">
-        <v>38</v>
+        <v>-1</v>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L230">
@@ -12060,7 +12045,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F231">
@@ -12073,16 +12058,11 @@
         <v>167</v>
       </c>
       <c r="I231">
-        <v>36</v>
+        <v>-1</v>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L231">
@@ -12112,7 +12092,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F232">
@@ -12125,16 +12105,11 @@
         <v>232</v>
       </c>
       <c r="I232">
-        <v>102</v>
+        <v>-1</v>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L232">
@@ -12164,7 +12139,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F233">
@@ -12177,16 +12152,11 @@
         <v>168</v>
       </c>
       <c r="I233">
-        <v>37</v>
+        <v>-1</v>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L233">
@@ -12216,7 +12186,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F234">
@@ -12229,16 +12199,11 @@
         <v>236</v>
       </c>
       <c r="I234">
-        <v>118</v>
+        <v>-1</v>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L234">
@@ -12268,7 +12233,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F235">
@@ -12281,16 +12246,11 @@
         <v>234</v>
       </c>
       <c r="I235">
-        <v>105</v>
+        <v>-1</v>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L235">
@@ -12320,7 +12280,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F236">
@@ -12333,16 +12293,11 @@
         <v>212</v>
       </c>
       <c r="I236">
-        <v>105</v>
+        <v>-1</v>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L236">
@@ -12372,7 +12327,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F237">
@@ -12385,16 +12340,11 @@
         <v>215</v>
       </c>
       <c r="I237">
-        <v>85</v>
+        <v>-1</v>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L237">
@@ -12424,7 +12374,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F238">
@@ -12437,16 +12387,11 @@
         <v>226</v>
       </c>
       <c r="I238">
-        <v>106</v>
+        <v>-1</v>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L238">
@@ -12476,7 +12421,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F239">
@@ -12489,16 +12434,11 @@
         <v>220</v>
       </c>
       <c r="I239">
-        <v>87</v>
+        <v>-1</v>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L239">
@@ -12528,7 +12468,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F240">
@@ -12541,16 +12481,11 @@
         <v>182</v>
       </c>
       <c r="I240">
-        <v>47</v>
+        <v>-1</v>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>HOLRA-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L240">
@@ -12580,7 +12515,7 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F241">
@@ -12593,16 +12528,11 @@
         <v>229</v>
       </c>
       <c r="I241">
-        <v>96</v>
+        <v>-1</v>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L241">
@@ -12632,7 +12562,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F242">
@@ -12645,16 +12575,11 @@
         <v>216</v>
       </c>
       <c r="I242">
-        <v>81</v>
+        <v>-1</v>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L242">
@@ -12684,7 +12609,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F243">
@@ -12697,16 +12622,11 @@
         <v>194</v>
       </c>
       <c r="I243">
-        <v>64</v>
+        <v>-1</v>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>HOLRA-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L243">
@@ -12736,7 +12656,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F244">
@@ -12749,16 +12669,11 @@
         <v>234</v>
       </c>
       <c r="I244">
-        <v>106</v>
+        <v>-1</v>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L244">
@@ -12788,7 +12703,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F245">
@@ -12801,16 +12716,11 @@
         <v>170</v>
       </c>
       <c r="I245">
-        <v>43</v>
+        <v>-1</v>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>HOLRA-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L245">
@@ -12840,7 +12750,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F246">
@@ -12853,16 +12763,11 @@
         <v>236</v>
       </c>
       <c r="I246">
-        <v>110</v>
+        <v>-1</v>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>HOLRA-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L246">
@@ -12892,7 +12797,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F247">
@@ -12905,16 +12810,11 @@
         <v>257</v>
       </c>
       <c r="I247">
-        <v>159</v>
+        <v>-1</v>
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L247">
@@ -12944,7 +12844,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F248">
@@ -12957,16 +12857,11 @@
         <v>248</v>
       </c>
       <c r="I248">
-        <v>129</v>
+        <v>-1</v>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L248">
@@ -12996,7 +12891,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F249">
@@ -13009,16 +12904,11 @@
         <v>182</v>
       </c>
       <c r="I249">
-        <v>44</v>
+        <v>-1</v>
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>HOLRA-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L249">
@@ -13048,7 +12938,7 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F250">
@@ -13061,16 +12951,11 @@
         <v>161</v>
       </c>
       <c r="I250">
-        <v>34</v>
+        <v>-1</v>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L250">
@@ -13100,7 +12985,7 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F251">
@@ -13113,16 +12998,11 @@
         <v>221</v>
       </c>
       <c r="I251">
-        <v>91</v>
+        <v>-1</v>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L251">
@@ -13152,7 +13032,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F252">
@@ -13165,16 +13045,11 @@
         <v>212</v>
       </c>
       <c r="I252">
-        <v>88</v>
+        <v>-1</v>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L252">
@@ -13204,7 +13079,7 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F253">
@@ -13217,16 +13092,11 @@
         <v>254</v>
       </c>
       <c r="I253">
-        <v>137</v>
+        <v>-1</v>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L253">
@@ -13256,7 +13126,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F254">
@@ -13269,16 +13139,11 @@
         <v>228</v>
       </c>
       <c r="I254">
-        <v>99</v>
+        <v>-1</v>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L254">
@@ -13308,7 +13173,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F255">
@@ -13321,16 +13186,11 @@
         <v>245</v>
       </c>
       <c r="I255">
-        <v>119</v>
+        <v>-1</v>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L255">
@@ -13360,7 +13220,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F256">
@@ -13373,16 +13233,11 @@
         <v>247</v>
       </c>
       <c r="I256">
-        <v>133</v>
+        <v>-1</v>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L256">
@@ -13412,7 +13267,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F257">
@@ -13425,16 +13280,11 @@
         <v>172</v>
       </c>
       <c r="I257">
-        <v>43</v>
+        <v>-1</v>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>HOLRA-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L257">
@@ -13464,7 +13314,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F258">
@@ -13477,16 +13327,11 @@
         <v>168</v>
       </c>
       <c r="I258">
-        <v>37</v>
+        <v>-1</v>
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L258">
@@ -13516,7 +13361,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F259">
@@ -13529,16 +13374,11 @@
         <v>167</v>
       </c>
       <c r="I259">
-        <v>37</v>
+        <v>-1</v>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>HOLRA-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L259">
@@ -13568,7 +13408,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F260">
@@ -13581,16 +13421,11 @@
         <v>245</v>
       </c>
       <c r="I260">
-        <v>161</v>
+        <v>-1</v>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L260">
@@ -13620,7 +13455,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F261">
@@ -13633,16 +13468,11 @@
         <v>223</v>
       </c>
       <c r="I261">
-        <v>79</v>
+        <v>-1</v>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L261">
@@ -13672,7 +13502,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F262">
@@ -13685,16 +13515,11 @@
         <v>220</v>
       </c>
       <c r="I262">
-        <v>94</v>
+        <v>-1</v>
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L262">
@@ -13724,7 +13549,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F263">
@@ -13737,16 +13562,11 @@
         <v>253</v>
       </c>
       <c r="I263">
-        <v>132</v>
+        <v>-1</v>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L263">
@@ -13776,7 +13596,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F264">
@@ -13789,16 +13609,11 @@
         <v>230</v>
       </c>
       <c r="I264">
-        <v>116</v>
+        <v>-1</v>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L264">
@@ -13828,7 +13643,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F265">
@@ -13841,16 +13656,11 @@
         <v>166</v>
       </c>
       <c r="I265">
-        <v>40</v>
+        <v>-1</v>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>HOLRA-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L265">
@@ -13880,7 +13690,7 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F266">
@@ -13893,16 +13703,11 @@
         <v>163</v>
       </c>
       <c r="I266">
-        <v>35</v>
+        <v>-1</v>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>HOLRA-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L266">
@@ -13932,7 +13737,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F267">
@@ -13945,16 +13750,11 @@
         <v>239</v>
       </c>
       <c r="I267">
-        <v>112</v>
+        <v>-1</v>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L267">
@@ -13984,7 +13784,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F268">
@@ -13997,16 +13797,11 @@
         <v>157</v>
       </c>
       <c r="I268">
-        <v>30</v>
+        <v>-1</v>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>HOLRA-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L268">
@@ -14036,7 +13831,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F269">
@@ -14049,16 +13844,11 @@
         <v>237</v>
       </c>
       <c r="I269">
-        <v>77</v>
+        <v>-1</v>
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L269">
@@ -14088,7 +13878,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F270">
@@ -14101,16 +13891,11 @@
         <v>216</v>
       </c>
       <c r="I270">
-        <v>84</v>
+        <v>-1</v>
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L270">
@@ -14140,7 +13925,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F271">
@@ -14153,16 +13938,11 @@
         <v>246</v>
       </c>
       <c r="I271">
-        <v>128</v>
+        <v>-1</v>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L271">
@@ -14192,7 +13972,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F272">
@@ -14205,16 +13985,11 @@
         <v>161</v>
       </c>
       <c r="I272">
-        <v>35</v>
+        <v>-1</v>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L272">
@@ -14244,7 +14019,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F273">
@@ -14257,16 +14032,11 @@
         <v>247</v>
       </c>
       <c r="I273">
-        <v>124</v>
+        <v>-1</v>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L273">
@@ -14296,7 +14066,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F274">
@@ -14309,16 +14079,11 @@
         <v>231</v>
       </c>
       <c r="I274">
-        <v>106</v>
+        <v>-1</v>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L274">
@@ -14348,7 +14113,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F275">
@@ -14361,16 +14126,11 @@
         <v>238</v>
       </c>
       <c r="I275">
-        <v>116</v>
+        <v>-1</v>
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L275">
@@ -14400,7 +14160,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F276">
@@ -14413,16 +14173,11 @@
         <v>161</v>
       </c>
       <c r="I276">
-        <v>29</v>
+        <v>-1</v>
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>HOLRA-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L276">
@@ -14452,7 +14207,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F277">
@@ -14465,16 +14220,11 @@
         <v>154</v>
       </c>
       <c r="I277">
-        <v>29</v>
+        <v>-1</v>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L277">
@@ -14504,7 +14254,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F278">
@@ -14517,16 +14267,11 @@
         <v>178</v>
       </c>
       <c r="I278">
-        <v>45</v>
+        <v>-1</v>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L278">
